--- a/RPIS/lista8/zad1.xlsx
+++ b/RPIS/lista8/zad1.xlsx
@@ -544,7 +544,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/RPIS/lista8/zad1.xlsx
+++ b/RPIS/lista8/zad1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>X</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>wariancja</t>
+  </si>
+  <si>
+    <t>ochylenie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h0 1.5</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h0 1.7</t>
   </si>
 </sst>
 </file>
@@ -544,7 +556,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +575,7 @@
         <v>5.4199999999999999</v>
       </c>
       <c r="B2" s="1">
-        <f>A2-B$52</f>
+        <f t="shared" ref="B2:B9" si="0">A2-B$52</f>
         <v>3.3389999999999995</v>
       </c>
     </row>
@@ -572,7 +584,7 @@
         <v>4.5800000000000001</v>
       </c>
       <c r="B3" s="1">
-        <f>A3-B$52</f>
+        <f t="shared" si="0"/>
         <v>2.4989999999999997</v>
       </c>
     </row>
@@ -581,7 +593,7 @@
         <v>5.2000000000000002</v>
       </c>
       <c r="B4" s="1">
-        <f>A4-B$52</f>
+        <f t="shared" si="0"/>
         <v>3.1189999999999998</v>
       </c>
     </row>
@@ -590,7 +602,7 @@
         <v>5.6299999999999999</v>
       </c>
       <c r="B5" s="1">
-        <f>A5-B$52</f>
+        <f t="shared" si="0"/>
         <v>3.5489999999999995</v>
       </c>
     </row>
@@ -599,7 +611,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B6" s="1">
-        <f>A6-B$52</f>
+        <f t="shared" si="0"/>
         <v>-0.9410000000000005</v>
       </c>
     </row>
@@ -608,7 +620,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="B7" s="1">
-        <f>A7-B$52</f>
+        <f t="shared" si="0"/>
         <v>2.359</v>
       </c>
     </row>
@@ -617,7 +629,7 @@
         <v>2.0800000000000001</v>
       </c>
       <c r="B8" s="1">
-        <f>A8-B$52</f>
+        <f t="shared" si="0"/>
         <v>-0.001000000000000334</v>
       </c>
     </row>
@@ -626,7 +638,7 @@
         <v>-0.44</v>
       </c>
       <c r="B9" s="1">
-        <f>A9-B$52</f>
+        <f t="shared" si="0"/>
         <v>-2.5210000000000004</v>
       </c>
     </row>
@@ -635,7 +647,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="B10" s="1">
-        <f>A10-B$52</f>
+        <f t="shared" ref="B10:B51" si="1">A10-B$52</f>
         <v>-1.5210000000000004</v>
       </c>
     </row>
@@ -644,7 +656,7 @@
         <v>1.7</v>
       </c>
       <c r="B11" s="1">
-        <f>A11-B$52</f>
+        <f t="shared" si="1"/>
         <v>-0.38100000000000045</v>
       </c>
     </row>
@@ -653,7 +665,7 @@
         <v>3.23</v>
       </c>
       <c r="B12" s="1">
-        <f>A12-B$52</f>
+        <f t="shared" si="1"/>
         <v>1.1489999999999996</v>
       </c>
     </row>
@@ -662,7 +674,7 @@
         <v>1.53</v>
       </c>
       <c r="B13" s="1">
-        <f>A13-B$52</f>
+        <f t="shared" si="1"/>
         <v>-0.55100000000000038</v>
       </c>
     </row>
@@ -671,7 +683,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B14" s="1">
-        <f>A14-B$52</f>
+        <f t="shared" si="1"/>
         <v>-1.5310000000000004</v>
       </c>
     </row>
@@ -680,7 +692,7 @@
         <v>4.9900000000000002</v>
       </c>
       <c r="B15" s="1">
-        <f>A15-B$52</f>
+        <f t="shared" si="1"/>
         <v>2.9089999999999998</v>
       </c>
     </row>
@@ -689,7 +701,7 @@
         <v>9.3599999999999994</v>
       </c>
       <c r="B16" s="1">
-        <f>A16-B$52</f>
+        <f t="shared" si="1"/>
         <v>7.278999999999999</v>
       </c>
     </row>
@@ -698,7 +710,7 @@
         <v>1.27</v>
       </c>
       <c r="B17" s="1">
-        <f>A17-B$52</f>
+        <f t="shared" si="1"/>
         <v>-0.81100000000000039</v>
       </c>
     </row>
@@ -707,7 +719,7 @@
         <v>-0.029999999999999999</v>
       </c>
       <c r="B18" s="1">
-        <f>A18-B$52</f>
+        <f t="shared" si="1"/>
         <v>-2.1110000000000002</v>
       </c>
     </row>
@@ -716,7 +728,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="B19" s="1">
-        <f>A19-B$52</f>
+        <f t="shared" si="1"/>
         <v>5.9690000000000003</v>
       </c>
     </row>
@@ -725,7 +737,7 @@
         <v>4.0700000000000003</v>
       </c>
       <c r="B20" s="1">
-        <f>A20-B$52</f>
+        <f t="shared" si="1"/>
         <v>1.9889999999999999</v>
       </c>
     </row>
@@ -734,7 +746,7 @@
         <v>3.1000000000000001</v>
       </c>
       <c r="B21" s="1">
-        <f>A21-B$52</f>
+        <f t="shared" si="1"/>
         <v>1.0189999999999997</v>
       </c>
     </row>
@@ -743,7 +755,7 @@
         <v>-1.24</v>
       </c>
       <c r="B22" s="1">
-        <f>A22-B$52</f>
+        <f t="shared" si="1"/>
         <v>-3.3210000000000006</v>
       </c>
     </row>
@@ -752,7 +764,7 @@
         <v>5.4199999999999999</v>
       </c>
       <c r="B23" s="1">
-        <f>A23-B$52</f>
+        <f t="shared" si="1"/>
         <v>3.3389999999999995</v>
       </c>
     </row>
@@ -761,7 +773,7 @@
         <v>0.080000000000000002</v>
       </c>
       <c r="B24" s="1">
-        <f>A24-B$52</f>
+        <f t="shared" si="1"/>
         <v>-2.0010000000000003</v>
       </c>
     </row>
@@ -770,7 +782,7 @@
         <v>1.74</v>
       </c>
       <c r="B25" s="1">
-        <f>A25-B$52</f>
+        <f t="shared" si="1"/>
         <v>-0.34100000000000041</v>
       </c>
     </row>
@@ -779,7 +791,7 @@
         <v>1.4199999999999999</v>
       </c>
       <c r="B26" s="1">
-        <f>A26-B$52</f>
+        <f t="shared" si="1"/>
         <v>-0.66100000000000048</v>
       </c>
     </row>
@@ -788,7 +800,7 @@
         <v>0.27000000000000002</v>
       </c>
       <c r="B27" s="1">
-        <f>A27-B$52</f>
+        <f t="shared" si="1"/>
         <v>-1.8110000000000004</v>
       </c>
     </row>
@@ -797,7 +809,7 @@
         <v>-3.3100000000000001</v>
       </c>
       <c r="B28" s="1">
-        <f>A28-B$52</f>
+        <f t="shared" si="1"/>
         <v>-5.391</v>
       </c>
     </row>
@@ -806,7 +818,7 @@
         <v>4.7999999999999998</v>
       </c>
       <c r="B29" s="1">
-        <f>A29-B$52</f>
+        <f t="shared" si="1"/>
         <v>2.7189999999999994</v>
       </c>
     </row>
@@ -815,7 +827,7 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="B30" s="1">
-        <f>A30-B$52</f>
+        <f t="shared" si="1"/>
         <v>1.5289999999999995</v>
       </c>
     </row>
@@ -824,7 +836,7 @@
         <v>-2.6899999999999999</v>
       </c>
       <c r="B31" s="1">
-        <f>A31-B$52</f>
+        <f t="shared" si="1"/>
         <v>-4.7710000000000008</v>
       </c>
     </row>
@@ -833,7 +845,7 @@
         <v>2.71</v>
       </c>
       <c r="B32" s="1">
-        <f>A32-B$52</f>
+        <f t="shared" si="1"/>
         <v>0.62899999999999956</v>
       </c>
     </row>
@@ -842,7 +854,7 @@
         <v>-1.21</v>
       </c>
       <c r="B33" s="1">
-        <f>A33-B$52</f>
+        <f t="shared" si="1"/>
         <v>-3.2910000000000004</v>
       </c>
     </row>
@@ -851,7 +863,7 @@
         <v>5.1900000000000004</v>
       </c>
       <c r="B34" s="1">
-        <f>A34-B$52</f>
+        <f t="shared" si="1"/>
         <v>3.109</v>
       </c>
     </row>
@@ -860,7 +872,7 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="B35" s="1">
-        <f>A35-B$52</f>
+        <f t="shared" si="1"/>
         <v>1.6389999999999998</v>
       </c>
     </row>
@@ -869,7 +881,7 @@
         <v>0.47999999999999998</v>
       </c>
       <c r="B36" s="1">
-        <f>A36-B$52</f>
+        <f t="shared" si="1"/>
         <v>-1.6010000000000004</v>
       </c>
     </row>
@@ -878,7 +890,7 @@
         <v>0.35999999999999999</v>
       </c>
       <c r="B37" s="1">
-        <f>A37-B$52</f>
+        <f t="shared" si="1"/>
         <v>-1.7210000000000005</v>
       </c>
     </row>
@@ -887,7 +899,7 @@
         <v>-1.72</v>
       </c>
       <c r="B38" s="1">
-        <f>A38-B$52</f>
+        <f t="shared" si="1"/>
         <v>-3.8010000000000002</v>
       </c>
     </row>
@@ -896,7 +908,7 @@
         <v>-2.2200000000000002</v>
       </c>
       <c r="B39" s="1">
-        <f>A39-B$52</f>
+        <f t="shared" si="1"/>
         <v>-4.3010000000000002</v>
       </c>
     </row>
@@ -905,7 +917,7 @@
         <v>3.8300000000000001</v>
       </c>
       <c r="B40" s="1">
-        <f>A40-B$52</f>
+        <f t="shared" si="1"/>
         <v>1.7489999999999997</v>
       </c>
     </row>
@@ -914,7 +926,7 @@
         <v>5.6299999999999999</v>
       </c>
       <c r="B41" s="1">
-        <f>A41-B$52</f>
+        <f t="shared" si="1"/>
         <v>3.5489999999999995</v>
       </c>
     </row>
@@ -923,7 +935,7 @@
         <v>-3.1400000000000001</v>
       </c>
       <c r="B42" s="1">
-        <f>A42-B$52</f>
+        <f t="shared" si="1"/>
         <v>-5.2210000000000001</v>
       </c>
     </row>
@@ -932,7 +944,7 @@
         <v>5.0899999999999999</v>
       </c>
       <c r="B43" s="1">
-        <f>A43-B$52</f>
+        <f t="shared" si="1"/>
         <v>3.0089999999999995</v>
       </c>
     </row>
@@ -941,7 +953,7 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="B44" s="1">
-        <f>A44-B$52</f>
+        <f t="shared" si="1"/>
         <v>1.0089999999999995</v>
       </c>
     </row>
@@ -950,7 +962,7 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="B45" s="1">
-        <f>A45-B$52</f>
+        <f t="shared" si="1"/>
         <v>-1.4310000000000005</v>
       </c>
     </row>
@@ -959,7 +971,7 @@
         <v>3.48</v>
       </c>
       <c r="B46" s="1">
-        <f>A46-B$52</f>
+        <f t="shared" si="1"/>
         <v>1.3989999999999996</v>
       </c>
     </row>
@@ -968,7 +980,7 @@
         <v>2.8900000000000001</v>
       </c>
       <c r="B47" s="1">
-        <f>A47-B$52</f>
+        <f t="shared" si="1"/>
         <v>0.80899999999999972</v>
       </c>
     </row>
@@ -977,7 +989,7 @@
         <v>-0.20000000000000001</v>
       </c>
       <c r="B48" s="1">
-        <f>A48-B$52</f>
+        <f t="shared" si="1"/>
         <v>-2.2810000000000006</v>
       </c>
     </row>
@@ -986,7 +998,7 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B49" s="1">
-        <f>A49-B$52</f>
+        <f t="shared" si="1"/>
         <v>-1.1810000000000005</v>
       </c>
     </row>
@@ -995,7 +1007,7 @@
         <v>-0.68000000000000005</v>
       </c>
       <c r="B50" s="1">
-        <f>A50-B$52</f>
+        <f t="shared" si="1"/>
         <v>-2.7610000000000006</v>
       </c>
     </row>
@@ -1004,7 +1016,7 @@
         <v>-1.3300000000000001</v>
       </c>
       <c r="B51" s="1">
-        <f>A51-B$52</f>
+        <f t="shared" si="1"/>
         <v>-3.4110000000000005</v>
       </c>
     </row>
@@ -1024,6 +1036,53 @@
       <c r="B53">
         <f>(1/COUNT(A2:A51))*SUMPRODUCT(B2:B51,B2:B51)</f>
         <v>8.065093000000001</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <f>SQRT(B53)</f>
+        <v>2.839910738033856</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="C55" s="1">
+        <f>((B52-1.5)/B54)*SQRT(49)</f>
+        <v>1.432087264410181</v>
+      </c>
+      <c r="D55">
+        <v>0.92647000000000002</v>
+      </c>
+      <c r="E55">
+        <f>((B52-1.75)/B54)*SQRT(49)</f>
+        <v>0.81587071345915685</v>
+      </c>
+      <c r="F55">
+        <v>0.79388999999999998</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="D56" s="1">
+        <f>_xlfn.GAUSS(C55)+0.5</f>
+        <v>0.92394057561202869</v>
+      </c>
+      <c r="F56">
+        <f>_xlfn.GAUSS(E55)+0.5</f>
+        <v>0.79271295805813047</v>
       </c>
     </row>
   </sheetData>
